--- a/InputData/io-model/BGDP/BAU GDP.xlsx
+++ b/InputData/io-model/BGDP/BAU GDP.xlsx
@@ -588,7 +588,7 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>309239200000</v>
+        <v>455046200000</v>
       </c>
     </row>
     <row r="3">
@@ -628,7 +628,7 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>313086200000</v>
+        <v>469478800000</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>319129900000</v>
+        <v>475339000000</v>
       </c>
     </row>
     <row r="5">
@@ -708,7 +708,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>325322700000</v>
+        <v>485498600000</v>
       </c>
     </row>
     <row r="6">
@@ -748,7 +748,7 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>333919500000</v>
+        <v>497331300000</v>
       </c>
     </row>
     <row r="7">
@@ -788,7 +788,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>338752300000</v>
+        <v>508625100000</v>
       </c>
     </row>
     <row r="8">
